--- a/Code/Results/Cases/Case_2_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_146/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>28.1630198432674</v>
+        <v>15.89584955866815</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>26.79314218379239</v>
+        <v>15.2699775710849</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>15.008197319934</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>14.96433081551589</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>15.26647399323134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344772</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.0027458068253</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>21.39172256362241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>21.65686569030329</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>21.60004134736741</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>21.4136618050453</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>21.29868154950794</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597326</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809801</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636154</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -573,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>21.46857628470571</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -581,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901554</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -589,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>21.82633154458858</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>20.22900810905285</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -605,7 +605,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>18.34778573295695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_146/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_146/res_line/loading_percent.xlsx
@@ -421,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.16301984326747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>15.2699775710849</v>
+        <v>26.79314218379243</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.21694803853471</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -453,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -461,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>15.26647399323134</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>16.53996406344772</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>19.0027458068253</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -485,7 +485,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -493,7 +493,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>21.39172256362241</v>
+        <v>39.14805722232858</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -501,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>21.60004134736741</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503948</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -525,7 +525,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>21.29868154950794</v>
+        <v>38.96319309123412</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -533,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028806</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -541,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="F17">
-        <v>20.20408069597326</v>
+        <v>36.80228778268395</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -549,7 +549,7 @@
         <v>16</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239628</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -557,7 +557,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150068</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -565,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.891556977314</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -573,7 +573,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>21.46857628470571</v>
+        <v>39.30090300329765</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -581,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="F22">
-        <v>22.22866616901554</v>
+        <v>40.81974568026781</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -589,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038423</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -597,7 +597,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>20.22900810905285</v>
+        <v>36.85121910575435</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -605,7 +605,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>
